--- a/static/saved/ahp2_WASPAS_full_ranking.xlsx
+++ b/static/saved/ahp2_WASPAS_full_ranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>model_name</t>
   </si>
@@ -22,388 +22,388 @@
     <t>score</t>
   </si>
   <si>
+    <t>Galaxy M51 6/128GB Black (SM-M515FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy M31 6/128GB Black (SM-M315FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy M31s 6/128GB Blue (SM-M317FZBN)</t>
+  </si>
+  <si>
+    <t>Galaxy M21 4/64GB Black (SM-M215FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy A31 4/128GB Black (SM-A315FZKV)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Midnight Black</t>
+  </si>
+  <si>
+    <t>Galaxy A71 2020 6/128GB Black (SM-A715FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Metallic Copper</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 1TB Black (SM-G975FCKH)</t>
+  </si>
+  <si>
+    <t>Galaxy Note10 Lite SM-N770F Dual 6/128GB Black (SM-N770FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A31 4/64GB Black (SM-A315FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 1TB Ceramic White (SM-G975FCWH)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 Lite SM-G770 6/128GB Black (SM-G770FZKG)</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A705F 6/128GB Black (SM-A705FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy A71 2020 SM-A715F 8/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A51 2020 6/128GB Blue (SM-A515FZBW)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Ocean Blue (SM-N960FZBH)</t>
+  </si>
+  <si>
+    <t>Galaxy Note10 Lite SM-N770F Dual 8/128GB Black (SM-N770FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 Lite SM-G770 8/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 512GB White (SM-G975FCWG)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 4/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 4/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy M115 M11 3/32 Black (SM-M115FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 512GB Black (SM-G975FCKG)</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 6/128GB Blue (SM-A505FZBQ)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 6/128GB Metallic Silver (SM-A515FMSW)</t>
+  </si>
+  <si>
+    <t>Galaxy A21s 3/32GB Black (SM-A217FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A7050 6/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy M30 SM-M305F 4/64GB Gradation Blue</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N975F 12/256GB Black (SM-N975FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 2020 4/64GB Black (SM-A515FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 4/64GB Blue (SM-A505FZBU)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 8/256GB Blue (SM-G780FZBH)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 2020 8/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra 5G SM-G9880 12/256GB Cosmic Gray</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A7050 6/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 5G N9810 8/256GB Mystic Gray</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N9750 12/256GB Aura Glow</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 6/128GB Blue (SM-G780FZBD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 6/128GB Metallic Copper</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G7810 8/128GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 SM-N980F 8/256GB Mystic Green (SM-N980FZGG)</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G9860 12/128GB Cosmic Black</t>
+  </si>
+  <si>
+    <t>Galaxy A30s 4/64GB Green (SM-A307FZGV)</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G986F-DS 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 128GB Black (SM-G975FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A20s 2019 A207F 3/32GB Black (SM-A207FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G9750 DS 1TB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 5G SM-N981B 8/256GB Mystic Bronze</t>
+  </si>
+  <si>
+    <t>Galaxy A30s 3/32GB Black (SM-A307FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy A10s 2019 SM-A107F 2/32GB Black (SM-A107FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 8/128GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy A9 2018 6/128Gb Blue (SM-A920FZBD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ LTE SM-G985 Dual 8/128GB Black (SM-G985FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra 5G SM-G988B 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N986B 12/256GB Mystic Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N9860 12/256GB Mystic Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G781B 6/128GB Cloud Red</t>
+  </si>
+  <si>
+    <t>Galaxy A11 2/32GB Black (SM-A115FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Lavender Purple</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 256GB Black (SM-G965FZKH)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N970F 8/256GB Black (SM-N970FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N975F 12/512GB Aura Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra SM-N985F 8/256GB Mystic Bronze (SM-N985FZNG)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G9750 DS 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A41 4/64GB Black (SM-A415FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S8+ 64GB Black (SM-G955FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra SM-G988 128GB Grey (SM-G988BZAD)</t>
+  </si>
+  <si>
+    <t>Galaxy A50s 2019 SM-A507FD 6/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 6/256GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy S20 SM-G980 8/128GB Grey (SM-G980FZAD)</t>
+  </si>
+  <si>
+    <t>Galaxy A80 2019 A8050 8/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 64GB Black (SM-G965FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G973 DS 128GB Green (SM-G973FZGD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 8 64GB Gold</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N986B 12/512GB Mystic Black (SM-N986BZKH)</t>
+  </si>
+  <si>
+    <t>Galaxy A7 2018 4/64GB Blue (SM-A750FZBU)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Purple</t>
+  </si>
+  <si>
+    <t>Galaxy S20 5G SM-G9810 12/128GB Cloud Pink</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 12/512GB Black (SM-F900FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N9700 8/256GB White</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N9700 8/256GB Black (SM-N9700ZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A50s SM-A5070 6/128GB Prism Crush Green</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G986B 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Grey</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G973 DS 512GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 5G SM-F907B 12/512GB Silver</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G9730 DS 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 5G SM-F707 8/256GB Mystic Bronze</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 5G SM-F907B 12/512GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S8 64GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 3/32GB Lavender</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G9860 8/128GB Gray</t>
+  </si>
+  <si>
+    <t>Galaxy M10S M107F 3/32GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S10e SM-G970 DS 128GB Black (SM-G970FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 64GB Black (SM-G960FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 4/32GB Gold</t>
+  </si>
+  <si>
+    <t>Galaxy A20e SM-A202F 3/32GB Black SM-A202FZKD</t>
+  </si>
+  <si>
+    <t>Galaxy Note 8 N950F Single sim 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 3/32GB Gold (SM-A605FZDN)</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip SM-F700 8/256GB Mirror Purple (SM-F700FZPD)</t>
+  </si>
+  <si>
+    <t>Galaxy A8+ 2018 32GB Orchid Gray (SM-A730FZVD)</t>
+  </si>
+  <si>
+    <t>Galaxy M10 SM-M105F 3/32GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 128GB Purple (SM-G960FZPG)</t>
+  </si>
+  <si>
+    <t>Galaxy A02s 3/32GB Blue (SM-A025FZBE)</t>
+  </si>
+  <si>
+    <t>Galaxy A12 SM-A125F 4/64GB Black (SM-A125FZKVSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S7 G930F 32GB (Gold)</t>
+  </si>
+  <si>
+    <t>Galaxy A12 SM-A125F 3/32GB Black (SM-A125FZKUSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A20e SM-A202F 3/32GB White (SM-A202FZWD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G7810 Dual 8/256GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy A01 2/16GB Black (SM-A015FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A01 Core 1/16GB Black (SM-A013FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy M10 SM-M105F 2/16GB Black (SM-M105GDAG)</t>
+  </si>
+  <si>
     <t>G920F Galaxy S6 32GB (White Pearl)</t>
   </si>
   <si>
-    <t>Galaxy A01 2/16GB Black (SM-A015FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A01 Core 1/16GB Black (SM-A013FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A02s 3/32GB Blue (SM-A025FZBE)</t>
-  </si>
-  <si>
-    <t>Galaxy A10s 2019 SM-A107F 2/32GB Black (SM-A107FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A11 2/32GB Black (SM-A115FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy A12 SM-A125F 3/32GB Black (SM-A125FZKUSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy A12 SM-A125F 4/64GB Black (SM-A125FZKVSEK)</t>
+    <t>Galaxy S21 Ultra 16/512GB Phantom Black (SM-G998BZKHSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21+ 8/256GB Phantom Black (SM-G996BZKGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21+ 8/128GB Phantom Black (SM-G996BZKDSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy A8+ 2018 32GB Gold (SM-A730FZDD)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 Ultra 12/256GB Phantom Black (SM-G998BZKGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 Ultra 12/128GB Phantom Black (SM-G998BZKDSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 8/128GB Phantom Grey (SM-G991BZADSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 8/256GB Phantom Grey (SM-G991BZAGSEK)</t>
+  </si>
+  <si>
+    <t>X Cover 4s G398F (SM-G398FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Z Fold2 12/256GB Mystic Black (SM-F916BZKQ)</t>
   </si>
   <si>
     <t>Galaxy A2 Core 2019 SM-A260 1/16GB Blue</t>
   </si>
   <si>
-    <t>Galaxy A20e SM-A202F 3/32GB Black SM-A202FZKD</t>
-  </si>
-  <si>
-    <t>Galaxy A20e SM-A202F 3/32GB White (SM-A202FZWD)</t>
-  </si>
-  <si>
-    <t>Galaxy A20s 2019 A207F 3/32GB Black (SM-A207FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A21s 3/32GB Black (SM-A217FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy A30s 3/32GB Black (SM-A307FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A30s 4/64GB Green (SM-A307FZGV)</t>
-  </si>
-  <si>
-    <t>Galaxy A31 4/128GB Black (SM-A315FZKV)</t>
-  </si>
-  <si>
-    <t>Galaxy A31 4/64GB Black (SM-A315FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A41 4/64GB Black (SM-A415FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 4/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 4/64GB Blue (SM-A505FZBU)</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 6/128GB Blue (SM-A505FZBQ)</t>
-  </si>
-  <si>
-    <t>Galaxy A50s 2019 SM-A507FD 6/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A50s SM-A5070 6/128GB Prism Crush Green</t>
-  </si>
-  <si>
-    <t>Galaxy A51 2020 4/64GB Black (SM-A515FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A51 2020 6/128GB Blue (SM-A515FZBW)</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 2020 8/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 4/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 6/128GB Metallic Silver (SM-A515FMSW)</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 3/32GB Gold (SM-A605FZDN)</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 3/32GB Lavender</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 4/32GB Gold</t>
-  </si>
-  <si>
-    <t>Galaxy A7 2018 4/64GB Blue (SM-A750FZBU)</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A7050 6/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A7050 6/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A705F 6/128GB Black (SM-A705FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A71 2020 6/128GB Black (SM-A715FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A71 2020 SM-A715F 8/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A8+ 2018 32GB Gold (SM-A730FZDD)</t>
-  </si>
-  <si>
-    <t>Galaxy A8+ 2018 32GB Orchid Gray (SM-A730FZVD)</t>
-  </si>
-  <si>
-    <t>Galaxy A80 2019 A8050 8/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A9 2018 6/128Gb Blue (SM-A920FZBD)</t>
-  </si>
-  <si>
     <t>Galaxy Fold 12/256GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 12/512GB Black (SM-F900FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 5G SM-F907B 12/512GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 5G SM-F907B 12/512GB Silver</t>
-  </si>
-  <si>
-    <t>Galaxy M10 SM-M105F 2/16GB Black (SM-M105GDAG)</t>
-  </si>
-  <si>
-    <t>Galaxy M10 SM-M105F 3/32GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy M10S M107F 3/32GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy M115 M11 3/32 Black (SM-M115FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy M21 4/64GB Black (SM-M215FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy M30 SM-M305F 4/64GB Gradation Blue</t>
-  </si>
-  <si>
-    <t>Galaxy M31 6/128GB Black (SM-M315FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy M31s 6/128GB Blue (SM-M317FZBN)</t>
-  </si>
-  <si>
-    <t>Galaxy M51 6/128GB Black (SM-M515FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N9700 8/256GB Black (SM-N9700ZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N9700 8/256GB White</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N970F 8/256GB Black (SM-N970FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N9750 12/256GB Aura Glow</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N975F 12/256GB Black (SM-N975FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N975F 12/512GB Aura Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 8 64GB Gold</t>
-  </si>
-  <si>
-    <t>Galaxy Note 8 N950F Single sim 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 6/128GB Metallic Copper</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Lavender Purple</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Metallic Copper</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Midnight Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Ocean Blue (SM-N960FZBH)</t>
-  </si>
-  <si>
-    <t>Galaxy Note10 Lite SM-N770F Dual 6/128GB Black (SM-N770FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note10 Lite SM-N770F Dual 8/128GB Black (SM-N770FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 5G N9810 8/256GB Mystic Gray</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 5G SM-N981B 8/256GB Mystic Bronze</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 SM-N980F 8/256GB Mystic Green (SM-N980FZGG)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N9860 12/256GB Mystic Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N986B 12/256GB Mystic Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N986B 12/512GB Mystic Black (SM-N986BZKH)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra SM-N985F 8/256GB Mystic Bronze (SM-N985FZNG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 Lite SM-G770 6/128GB Black (SM-G770FZKG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 Lite SM-G770 8/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G973 DS 128GB Green (SM-G973FZGD)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G973 DS 512GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G9730 DS 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 128GB Black (SM-G975FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 1TB Black (SM-G975FCKH)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 1TB Ceramic White (SM-G975FCWH)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 512GB Black (SM-G975FCKG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 512GB White (SM-G975FCWG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G9750 DS 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G9750 DS 1TB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10e SM-G970 DS 128GB Black (SM-G970FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 5G SM-G9810 12/128GB Cloud Pink</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G7810 8/128GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G7810 Dual 8/256GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G781B 6/128GB Cloud Red</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 6/128GB Blue (SM-G780FZBD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 6/256GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 8/128GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 8/256GB Blue (SM-G780FZBH)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 SM-G980 8/128GB Grey (SM-G980FZAD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra 5G SM-G9880 12/256GB Cosmic Gray</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra 5G SM-G988B 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra SM-G988 128GB Grey (SM-G988BZAD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G9860 12/128GB Cosmic Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G9860 8/128GB Gray</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G986B 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G986F-DS 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ LTE SM-G985 Dual 8/128GB Black (SM-G985FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 8/128GB Phantom Grey (SM-G991BZADSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 8/256GB Phantom Grey (SM-G991BZAGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 12/128GB Phantom Black (SM-G998BZKDSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 12/256GB Phantom Black (SM-G998BZKGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 16/512GB Phantom Black (SM-G998BZKHSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21+ 8/128GB Phantom Black (SM-G996BZKDSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21+ 8/256GB Phantom Black (SM-G996BZKGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S7 G930F 32GB (Gold)</t>
-  </si>
-  <si>
-    <t>Galaxy S8 64GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S8+ 64GB Black (SM-G955FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 128GB Purple (SM-G960FZPG)</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 64GB Black (SM-G960FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Grey</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Purple</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 256GB Black (SM-G965FZKH)</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 64GB Black (SM-G965FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Z Flip 5G SM-F707 8/256GB Mystic Bronze</t>
-  </si>
-  <si>
-    <t>Galaxy Z Flip SM-F700 8/256GB Mirror Purple (SM-F700FZPD)</t>
-  </si>
-  <si>
-    <t>Galaxy Z Fold2 12/256GB Mystic Black (SM-F916BZKQ)</t>
-  </si>
-  <si>
-    <t>X Cover 4s G398F (SM-G398FZKD)</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6092185001183451</v>
+        <v>0.6015163949789477</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6046273368078606</v>
+        <v>0.5864770746071939</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5804114852536615</v>
+        <v>0.5703465791231395</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5772115048889728</v>
+        <v>0.5512153346629882</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5747986582263289</v>
+        <v>0.5489848881028456</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -836,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.5698110253791895</v>
+        <v>0.5487037842086884</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -844,255 +844,255 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.5687167181240491</v>
+        <v>0.5473110323112165</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.5643746007554824</v>
+        <v>0.5431761105429671</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.5585203690624561</v>
+        <v>0.5426248509773318</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.5489848881028456</v>
+        <v>0.5426185962234988</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5440991876829055</v>
+        <v>0.5301832857714563</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5383397250776927</v>
+        <v>0.5297148439721662</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0.5338349615901079</v>
+        <v>0.5274920816537184</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.5324919773828676</v>
+        <v>0.524036665619812</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.5317710284359329</v>
+        <v>0.5220410323102742</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0.5280172318940568</v>
+        <v>0.5213662891117472</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>0.5265840216917687</v>
+        <v>0.5160879231850239</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>0.5244054775677606</v>
+        <v>0.5151275492144908</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0.5225709380361988</v>
+        <v>0.5141880911877275</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>0.5214509438478968</v>
+        <v>0.5083636450738115</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>0.5195564559763748</v>
+        <v>0.5080591326100841</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>0.5148476444448904</v>
+        <v>0.5075019766409239</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>0.513098086174587</v>
+        <v>0.5060657097702943</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>0.5127540009753219</v>
+        <v>0.5060289097970945</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>0.5127012822891421</v>
+        <v>0.5051162348433266</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>0.5118577023664648</v>
+        <v>0.5047127123725177</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>0.5097928933932798</v>
+        <v>0.5016778643768892</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>0.5093598640017298</v>
+        <v>0.5014567138588286</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>0.5074104714601471</v>
+        <v>0.4978689144473834</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>0.5033621379536081</v>
+        <v>0.4925752174983182</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>0.5020913355717873</v>
+        <v>0.4896033592189455</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>0.500236917200924</v>
+        <v>0.4885615387067291</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>0.4973359443170305</v>
+        <v>0.4883602424108657</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>0.4963135692001104</v>
+        <v>0.4870391860773723</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>0.4916992752081195</v>
+        <v>0.4865904633165054</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4898643046576662</v>
+        <v>0.4865386371025534</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>0.4886481010467457</v>
+        <v>0.4855630231637991</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4868292351912215</v>
+        <v>0.4855306649306647</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1100,103 +1100,103 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.4860183219252882</v>
+        <v>0.485152501479978</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>0.4855788579393933</v>
+        <v>0.4850624741889802</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>0.4841614258557666</v>
+        <v>0.484910988457987</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>0.4818592816686066</v>
+        <v>0.4848002376140509</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>0.4804720146006923</v>
+        <v>0.4840553180835114</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B47">
-        <v>0.4781662524973613</v>
+        <v>0.4836763385664048</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>0.477032951307831</v>
+        <v>0.4834401112749404</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B49">
-        <v>0.4766250860381042</v>
+        <v>0.4808413762143964</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B50">
-        <v>0.4746358957849627</v>
+        <v>0.4803408272395775</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51">
-        <v>0.4730571076864122</v>
+        <v>0.4802957948110871</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B52">
-        <v>0.471778219503626</v>
+        <v>0.4789546916170021</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>0.4710651186054278</v>
+        <v>0.4784166711356216</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>0.4685275790345965</v>
+        <v>0.4782072242024356</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>47</v>
       </c>
       <c r="B55">
-        <v>0.4676446467580384</v>
+        <v>0.4760589907550456</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>48</v>
       </c>
       <c r="B56">
-        <v>0.4672087026470011</v>
+        <v>0.4727609482242368</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>49</v>
       </c>
       <c r="B57">
-        <v>0.4657968760924992</v>
+        <v>0.4724214709109408</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>50</v>
       </c>
       <c r="B58">
-        <v>0.4645448789227338</v>
+        <v>0.4707254127286387</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="B59">
-        <v>0.4639867876449558</v>
+        <v>0.4702766965681784</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>52</v>
       </c>
       <c r="B60">
-        <v>0.4630702015807551</v>
+        <v>0.4697968949224355</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>53</v>
       </c>
       <c r="B61">
-        <v>0.4619797094272938</v>
+        <v>0.4679625937884206</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>54</v>
       </c>
       <c r="B62">
-        <v>0.4611913599946564</v>
+        <v>0.4661514174433887</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.4564106456438841</v>
+        <v>0.4648322636962902</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>56</v>
       </c>
       <c r="B64">
-        <v>0.4541115423316407</v>
+        <v>0.4640106338323053</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>57</v>
       </c>
       <c r="B65">
-        <v>0.4533762797997232</v>
+        <v>0.4629626522198752</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="B66">
-        <v>0.4517740838169642</v>
+        <v>0.4618819432591916</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>59</v>
       </c>
       <c r="B67">
-        <v>0.4505105933845545</v>
+        <v>0.4606536694064638</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>60</v>
       </c>
       <c r="B68">
-        <v>0.4502054479063395</v>
+        <v>0.4600490347752388</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1316,55 +1316,55 @@
         <v>61</v>
       </c>
       <c r="B69">
-        <v>0.4490395412934927</v>
+        <v>0.4579220364961591</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70">
-        <v>0.4474243382372922</v>
+        <v>0.456343382037115</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71">
-        <v>0.4457888997131293</v>
+        <v>0.4559968481314711</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72">
-        <v>0.4444403405269501</v>
+        <v>0.4537586936550179</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73">
-        <v>0.4420323779924976</v>
+        <v>0.4529009973153634</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74">
-        <v>0.4414577293834894</v>
+        <v>0.4516944090084113</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B75">
-        <v>0.4409344794149625</v>
+        <v>0.4498554384094828</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1372,542 +1372,830 @@
         <v>65</v>
       </c>
       <c r="B76">
-        <v>0.43957568099948</v>
+        <v>0.4483883004907561</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B77">
-        <v>0.4387950836885246</v>
+        <v>0.4482767839504387</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B78">
-        <v>0.4354775716103171</v>
+        <v>0.4479302500447948</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>0.4348872435226822</v>
+        <v>0.4475779266311686</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B80">
-        <v>0.432746202359983</v>
+        <v>0.4459992721721244</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B81">
-        <v>0.430185913794379</v>
+        <v>0.445970453659986</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B82">
-        <v>0.4296975230774163</v>
+        <v>0.4459218791164519</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B83">
-        <v>0.425620648697654</v>
+        <v>0.4458934461253984</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B84">
-        <v>0.4246935126007791</v>
+        <v>0.4458448715818643</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B85">
-        <v>0.4221349070680794</v>
+        <v>0.4456527382664806</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B86">
-        <v>0.4206841687802234</v>
+        <v>0.4433188306795957</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B87">
-        <v>0.4199372723015105</v>
+        <v>0.4414479348153444</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B88">
-        <v>0.4195705822320344</v>
+        <v>0.4401482783929689</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B89">
-        <v>0.4190797220547833</v>
+        <v>0.4400106089565473</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B90">
-        <v>0.4188160156065504</v>
+        <v>0.4390719743754793</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B91">
-        <v>0.4184723006258761</v>
+        <v>0.4384319544975031</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>0.4176678889577569</v>
+        <v>0.4380854205918593</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B93">
-        <v>0.4173248772637938</v>
+        <v>0.436586477148887</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B94">
-        <v>0.4158785235141059</v>
+        <v>0.4340198161580038</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B95">
-        <v>0.4152928084605191</v>
+        <v>0.4339088908853112</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B96">
-        <v>0.4137399181071111</v>
+        <v>0.4332381098004086</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B97">
-        <v>0.4133469502518883</v>
+        <v>0.4316594553413644</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B98">
-        <v>0.4120130851782938</v>
+        <v>0.4313466237240869</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B99">
-        <v>0.408492978397974</v>
+        <v>0.4313129214357206</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B100">
-        <v>0.4053524973829767</v>
+        <v>0.4297679692650427</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B101">
-        <v>0.3986741971229444</v>
+        <v>0.4294214353593989</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B102">
-        <v>0.39861398216882</v>
+        <v>0.4280602497602416</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B103">
-        <v>0.3949694889766484</v>
+        <v>0.426953160795575</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B104">
-        <v>0.3920547109680209</v>
+        <v>0.4204391088631443</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B105">
-        <v>0.3884740126603644</v>
+        <v>0.4190132327184488</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B106">
-        <v>0.3826327002640456</v>
+        <v>0.4182810906251317</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B107">
-        <v>0.3769709475321507</v>
+        <v>0.4178589758976695</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B108">
-        <v>0.3761315378668811</v>
+        <v>0.4167999175610565</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B109">
-        <v>0.3698889538633355</v>
+        <v>0.415642845548909</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B110">
-        <v>0.3683615812829727</v>
+        <v>0.4129466752267067</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B111">
-        <v>0.3674869681031996</v>
+        <v>0.4117730603595282</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B112">
-        <v>0.3598873287856084</v>
+        <v>0.4111374427089877</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B113">
-        <v>0.354197969213183</v>
+        <v>0.4068639446270777</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B114">
-        <v>0.3480147561857923</v>
+        <v>0.4046674622520074</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B115">
-        <v>0.3469131960224888</v>
+        <v>0.4040266752107783</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B116">
-        <v>0.345706339454505</v>
+        <v>0.4013382738816528</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B117">
-        <v>0.3438130138469508</v>
+        <v>0.4008033738973799</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B118">
-        <v>0.332560352107575</v>
+        <v>0.3991465558681332</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B119">
-        <v>0.3152651383735366</v>
+        <v>0.3987051562719073</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B120">
-        <v>0.3035077113186744</v>
+        <v>0.3980762254157695</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B121">
-        <v>0.2191897920288387</v>
+        <v>0.3968470513164991</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B122">
-        <v>0.218533552409171</v>
+        <v>0.395481772216871</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B123">
-        <v>0.2179621058674042</v>
+        <v>0.3941726441288831</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B124">
-        <v>0.2170582887318726</v>
+        <v>0.3927391753255475</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B125">
-        <v>0.2168541215732437</v>
+        <v>0.3921451035973899</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B126">
-        <v>0.2161038720106002</v>
+        <v>0.390835975509402</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B127">
-        <v>0.2156385778155169</v>
+        <v>0.3899842790695383</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B128">
-        <v>0.214329449727529</v>
+        <v>0.3862001309867907</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B129">
-        <v>0.2128722844928625</v>
+        <v>0.3782415193452126</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B130">
-        <v>0.2128241826258706</v>
+        <v>0.3781662802943028</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B131">
-        <v>0.2107915675255187</v>
+        <v>0.3661184810970668</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B132">
-        <v>0.2105297531711732</v>
+        <v>0.3655699331999562</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B133">
-        <v>0.2098536336015276</v>
+        <v>0.3648478567763727</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B134">
-        <v>0.2055167239564023</v>
+        <v>0.3630695194195576</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B135">
-        <v>0.2042460996357082</v>
+        <v>0.3617988950988635</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B136">
-        <v>0.2020225207321284</v>
+        <v>0.3569204057961768</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B137">
-        <v>0.1914667723654734</v>
+        <v>0.350411611566828</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B138">
-        <v>0.1908121290261402</v>
+        <v>0.3500650776611841</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B139">
-        <v>0.1851699362585263</v>
+        <v>0.3485565747115607</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B140">
-        <v>0.1848234023528824</v>
+        <v>0.3482100408059168</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B141">
-        <v>0.1833220340806091</v>
+        <v>0.3481126463040239</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B142">
-        <v>0.1829755001749653</v>
+        <v>0.3446770476629862</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143">
+        <v>0.315295482976911</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144">
+        <v>0.3139869711376128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145">
+        <v>0.3138219302931758</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146">
+        <v>0.3100702022706522</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147">
+        <v>0.3085258967336598</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>111</v>
+      </c>
+      <c r="B148">
+        <v>0.3081793628280159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>111</v>
+      </c>
+      <c r="B149">
+        <v>0.3066209808340711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>111</v>
+      </c>
+      <c r="B150">
+        <v>0.3062744469284272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151">
+        <v>0.2945372424421641</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>113</v>
+      </c>
+      <c r="B152">
+        <v>0.2551922796203944</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>114</v>
+      </c>
+      <c r="B153">
+        <v>0.2536868702522748</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>115</v>
+      </c>
+      <c r="B154">
+        <v>0.238629106224522</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>116</v>
+      </c>
+      <c r="B155">
+        <v>0.2381649662475111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156">
+        <v>0.2381649662475111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>116</v>
+      </c>
+      <c r="B157">
+        <v>0.2381649662475111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>116</v>
+      </c>
+      <c r="B158">
+        <v>0.2372023720651671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B159">
+        <v>0.2372023720651671</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>116</v>
+      </c>
+      <c r="B160">
+        <v>0.2372023720651671</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161">
+        <v>0.2362397778828231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162">
+        <v>0.2362397778828231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163">
+        <v>0.2362397778828231</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>117</v>
+      </c>
+      <c r="B164">
+        <v>0.2331603487381166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>118</v>
+      </c>
+      <c r="B165">
+        <v>0.2314529538273564</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166">
+        <v>0.2309212171972091</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167">
+        <v>0.226046478970515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>121</v>
+      </c>
+      <c r="B168">
+        <v>0.2254267512460536</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>122</v>
+      </c>
+      <c r="B169">
+        <v>0.2232606480059882</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>123</v>
+      </c>
+      <c r="B170">
+        <v>0.2179621058674042</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>124</v>
+      </c>
+      <c r="B171">
+        <v>0.2168541215732437</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172">
+        <v>0.2128722844928625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>126</v>
+      </c>
+      <c r="B173">
+        <v>0.2098536336015276</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>127</v>
+      </c>
+      <c r="B174">
+        <v>0.1908121290261402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>128</v>
+      </c>
+      <c r="B175">
+        <v>0.1833220340806091</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176">
+        <v>0.1833220340806091</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>128</v>
+      </c>
+      <c r="B177">
+        <v>0.1829755001749653</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178">
+        <v>0.1829755001749653</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>129</v>
       </c>
-      <c r="B143">
+      <c r="B179">
         <v>0.1405950240792261</v>
       </c>
     </row>
